--- a/artfynd/A 22195-2025 artfynd.xlsx
+++ b/artfynd/A 22195-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY6"/>
+  <dimension ref="A1:AY8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1253,6 +1253,230 @@
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>131255264</v>
+      </c>
+      <c r="B7" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Stora Vittjärnen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>485818</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6666268</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>09:18</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>09:18</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Tobias Hellberg</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Tobias Hellberg</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>131255137</v>
+      </c>
+      <c r="B8" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Stora Vittjärnen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>485867</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6666265</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>09:12</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>09:12</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Äldre ringhack på gran</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Tobias Hellberg</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Tobias Hellberg</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 22195-2025 artfynd.xlsx
+++ b/artfynd/A 22195-2025 artfynd.xlsx
@@ -1258,7 +1258,7 @@
         <v>131255264</v>
       </c>
       <c r="B7" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>

--- a/artfynd/A 22195-2025 artfynd.xlsx
+++ b/artfynd/A 22195-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY8"/>
+  <dimension ref="A1:AY9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1477,6 +1477,116 @@
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>131302285</v>
+      </c>
+      <c r="B9" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Död ved, Dlr</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>485798</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6666146</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Färska födosökningsspår av spillkråka på låga.</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Egil Borgne</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Egil Borgne</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
